--- a/outputs/RALEIGH5.xlsx
+++ b/outputs/RALEIGH5.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: ABI is motivated to accomplish tasks and would consider gathering information a necessary step toward setting up the environment. Additionally, ABI's comprehensive information processing style means they are likely to spend time understanding the required steps in detail before taking action. The page provides various links and information related to the environment setup, which ABI would find useful for completing the subgoal.</t>
+Why: The page provides various resources and information related to the project, including deployment processes and code style guides. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely consider gathering more information on setting up the environment as a necessary step toward achieving the overall use case.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: Scrolling to find information aligns with ABI's comprehensive information processing style. The page is well-organized with clear headings and sections, which helps ABI understand that scrolling might reveal additional relevant information. The layout encourages ABI to continue exploring the page to gather more details about setting up the environment.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: Scrolling to find information is a straightforward action that aligns with Abi's comprehensive information processing style. The page is well-organized with clear sections and headings, making it easy for Abi to identify where to find relevant information. This reduces the likelihood of feeling overwhelmed or uncertain, thus supporting her computer self-efficacy.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While the page contains various sections and some useful information, it may not provide all the detailed and specific steps ABI needs for setting up the environment. ABI prefers comprehensive information and clear guidance but might find the mix of general information and links insufficiently detailed for their needs. Additionally, the abundance of technical terms and links without explicit, step-by-step instructions could overwhelm ABI, given their low computer self-efficacy. This might result in ABI feeling unsure about whether they are making progress toward their goal.</t>
+Why: While scrolling, Abi might find some relevant information, but the page contains a lot of different sections and links, which could be overwhelming. The information is not specifically focused on setting up the environment, and Abi might not be sure if she has found all the necessary details. Given her comprehensive information processing style, she might feel uncertain about whether she has gathered all the required information, affecting her confidence in making progress toward her goal.</t>
         </is>
       </c>
     </row>

--- a/outputs/RALEIGH5.xlsx
+++ b/outputs/RALEIGH5.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: ABI is motivated to accomplish tasks and will likely recognize that gathering more information is a necessary step toward setting up the environment. Additionally, ABI's comprehensive information processing style means they will want to gather all relevant information before proceeding. The page provides various resources and documentation links that ABI can use to gather the necessary information.</t>
+Why: The page contains various resources and documentation links such as "Contribute.md" and "Deploying.md" that are relevant to setting up the environment. ABI, who prefers to gather comprehensive information before acting, would likely consider gathering more information from these resources as a necessary step toward achieving the overall use case. The presence of these links aligns with ABI's motivation to accomplish tasks and her information processing style of gathering detailed information.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: Scrolling to find information aligns with ABI's comprehensive information processing style. The page is structured in a way that allows ABI to scroll and find various pieces of information related to setting up the environment, such as documentation links and contact information. This action is straightforward and does not require any unfamiliar computing tasks, making it suitable for ABI.</t>
+Why: Scrolling to find information is a straightforward action that aligns with ABI's comprehensive information processing style. The page contains various sections and links that are likely to provide the necessary information for setting up the environment. ABI would recognize the need to scroll to gather more details, and the page layout supports this action by presenting relevant information in a structured manner.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling, ABI might find some relevant information, but the page contains a lot of different types of information, which can be overwhelming. ABI's comprehensive information processing style means they need clear, organized, and relevant information to feel confident they are making progress. The page has various links and sections, but it is not immediately clear which ones are specifically for setting up the environment. This lack of clear direction can make ABI uncertain if they are on the right track, especially given their low computer self-efficacy.</t>
+Why: While scrolling down the page, ABI will find some relevant links and information, such as "Contribute.md" and "Deploying.md," which could be useful for setting up the environment. However, the page contains a lot of information, and it is not immediately clear which specific sections or links will provide the comprehensive details ABI needs. Given ABI's low computer self-efficacy, she might feel overwhelmed by the amount of information and unsure if she has found all the necessary details. This uncertainty can hinder her confidence in knowing she is making progress toward her goal.</t>
         </is>
       </c>
     </row>

--- a/outputs/RALEIGH5.xlsx
+++ b/outputs/RALEIGH5.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page contains various resources and documentation links such as "Contribute.md" and "Deploying.md" that are relevant to setting up the environment. ABI, who prefers to gather comprehensive information before acting, would likely consider gathering more information from these resources as a necessary step toward achieving the overall use case. The presence of these links aligns with ABI's motivation to accomplish tasks and her information processing style of gathering detailed information.</t>
+Why: The page contains a "README.md" file and a "How to use?" section, which are likely to provide information on setting up the environment. ABI, who prefers comprehensive information gathering, would consider reading these sections as a step toward achieving the overall use case of setting up the environment. This aligns with ABI's motivation to accomplish tasks and their information processing style of gathering detailed information before acting.</t>
         </is>
       </c>
     </row>
@@ -434,17 +434,17 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: Scrolling to find information is a straightforward action that aligns with ABI's comprehensive information processing style. The page contains various sections and links that are likely to provide the necessary information for setting up the environment. ABI would recognize the need to scroll to gather more details, and the page layout supports this action by presenting relevant information in a structured manner.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page is structured in a way that provides clear sections and headings, such as "README.md" and "How to use?", which are likely to contain relevant information for setting up the environment. ABI, who prefers to gather comprehensive information, will recognize the need to scroll to find detailed instructions. The clear layout and familiar structure of the page will help ABI feel confident in taking the action of scrolling to gather more information.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling down the page, ABI will find some relevant links and information, such as "Contribute.md" and "Deploying.md," which could be useful for setting up the environment. However, the page contains a lot of information, and it is not immediately clear which specific sections or links will provide the comprehensive details ABI needs. Given ABI's low computer self-efficacy, she might feel overwhelmed by the amount of information and unsure if she has found all the necessary details. This uncertainty can hinder her confidence in knowing she is making progress toward her goal.</t>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: After scrolling, ABI will find sections like "README.md" and "How to use?" which are likely to contain detailed information on setting up the environment. This aligns with ABI's comprehensive information processing style, as these sections are designed to provide the necessary details. The presence of these sections will indicate to ABI that they are making progress toward their goal of gathering more information on setting up the environment. The clear and structured layout of the page will help ABI feel confident that they are on the right track.</t>
         </is>
       </c>
     </row>
